--- a/public/inputExcel/Input_DATA_File.xlsx
+++ b/public/inputExcel/Input_DATA_File.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
   <si>
     <t>Année</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>Mai</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1232,10 @@
   <dimension ref="B1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,18 +1949,42 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="28">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>123</v>
+      </c>
+      <c r="L20" s="11">
+        <v>223</v>
+      </c>
+      <c r="M20" s="11">
+        <v>123</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1965,18 +1992,42 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="B21" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="28">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>123</v>
+      </c>
+      <c r="L21" s="11">
+        <v>223</v>
+      </c>
+      <c r="M21" s="11">
+        <v>123</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1984,18 +2035,42 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="B22" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="28">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>123</v>
+      </c>
+      <c r="L22" s="11">
+        <v>223</v>
+      </c>
+      <c r="M22" s="11">
+        <v>123</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2003,18 +2078,42 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="B23" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="28">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>170</v>
+      </c>
+      <c r="L23" s="11">
+        <v>170</v>
+      </c>
+      <c r="M23" s="11">
+        <v>170</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2022,18 +2121,42 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="B24" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="28">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>123</v>
+      </c>
+      <c r="L24" s="11">
+        <v>223</v>
+      </c>
+      <c r="M24" s="11">
+        <v>123</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
